--- a/data/리뷰증감률/review_score_time_grad_before.xlsx
+++ b/data/리뷰증감률/review_score_time_grad_before.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,276 +505,181 @@
           <t>2020.08.01~2020.09.01</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>최근 1개월</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>최근 3개월</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>최근 6개월</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>최근 1년</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>스시아라타</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>한식</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>일식</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-1.25</v>
+      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>0.1190476190476186</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.25</v>
+      </c>
       <c r="K2" t="n">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.6666666666666665</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6666666666666665</v>
+        <v>-0.4642857142857144</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4500000000000002</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.2250000000000001</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.2861111111111111</v>
+        <v>0.4642857142857144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>창고43</t>
+          <t>오헨</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>한식</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.412751677852349</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2291666666666661</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.7932692307692304</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.1364468864468864</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9036744505494507</v>
-      </c>
+          <t>카페</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>-0.2240927419354843</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.006810035842293338</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.3555555555555556</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.133333333333333</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-1.523809523809524</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>0.4565018315018312</v>
+        <v>0.1875</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4789238539238543</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.0478639866223759</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0478639866223759</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.191550609056202</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-0.0501842093471474</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.1954200097299153</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>정인면옥</t>
+          <t>하쯔호</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>한식</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1.101910828025478</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.6551724137931032</v>
-      </c>
+          <t>일식</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.246081504702194</v>
+        <v>0.03571428571428559</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3131313131313131</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3830409356725144</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03383458646616511</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5297619047619055</v>
+        <v>-0.125</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2867647058823533</v>
+        <v>0.125</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.4586056644880179</v>
+        <v>-0.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2495370370370371</v>
+        <v>0.25</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3823275862068969</v>
+        <v>0.125</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.02569178373776104</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.03508721920788445</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.03508721920788445</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.01482755155933595</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.1151958049135463</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.09280559955963115</v>
+        <v>-0.4375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>에덴식당</t>
+          <t>피그인더가든</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>한식</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>양식</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.07222222222222241</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.545454545454545</v>
+      </c>
       <c r="E5" t="n">
-        <v>0.3999999999999995</v>
+        <v>0.1363636363636367</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.9333333333333331</v>
+        <v>-0.6193181818181817</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.3125</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2478632478632479</v>
+        <v>0.2247150997150991</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2832167832167833</v>
+        <v>-0.226987826987826</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1909090909090905</v>
+        <v>-0.5282828282828285</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1624999999999996</v>
+        <v>0.3888888888888888</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.07916666666666661</v>
+        <v>0.10952380952381</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.4208333333333334</v>
+        <v>-0.04383753501400633</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4722222222222223</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.03347222222222222</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.03347222222222222</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.1797222222222223</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.0364814814814815</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.05575617283950619</v>
+        <v>-0.1414565826330527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>가양칼국수버섯매운탕</t>
+          <t>정인면옥</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -783,120 +688,88 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6568965517241381</v>
+        <v>1.101910828025478</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.21875</v>
+        <v>-0.6551724137931032</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2595108695652177</v>
+        <v>0.246081504702194</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06617295747730534</v>
+        <v>-0.3131313131313131</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2838580338580332</v>
+        <v>-0.3830409356725144</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1427308683406245</v>
+        <v>0.03383458646616511</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02543729982754339</v>
+        <v>0.5297619047619055</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.04051796157059329</v>
+        <v>-0.2867647058823533</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.019939554769276</v>
+        <v>-0.4586056644880179</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8959276018099547</v>
+        <v>0.2495370370370371</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4330891330891329</v>
+        <v>0.3823275862068969</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4132756132756135</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-0.004602055033089488</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-0.004602055033089488</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.1346905010698115</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.166933412166678</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.04543438055946519</v>
+        <v>-0.02569178373776104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>경천애인</t>
+          <t>아트리오</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>한식</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>양식</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.130952380952381</v>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1666666666666661</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>-0.04166666666666607</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.4861111111111112</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4444444444444442</v>
+        <v>0.1428571428571432</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2666666666666666</v>
+        <v>0.01890756302521002</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.06666666666666643</v>
+        <v>0.5882352941176467</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5416666666666661</v>
+        <v>-0.3214285714285712</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.02976190476190421</v>
+        <v>-0.4464285714285716</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1785714285714288</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.1208333333333333</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.1208333333333333</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.02103174603174593</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.09933862433862427</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.0256172839506173</v>
+        <v>0.5595238095238089</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>파낙스</t>
+          <t>가양칼국수버섯매운탕</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -904,58 +777,47 @@
           <t>한식</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>0.6568965517241381</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.21875</v>
+      </c>
       <c r="E8" t="n">
-        <v>-0.2678571428571428</v>
+        <v>-0.2595108695652177</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5714285714285716</v>
+        <v>0.06617295747730534</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2747252747252746</v>
+        <v>-0.2838580338580332</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03365384615384581</v>
+        <v>0.1427308683406245</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4236111111111107</v>
+        <v>0.02543729982754339</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.4444444444444446</v>
+        <v>-0.04051796157059329</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3333333333333339</v>
+        <v>-1.019939554769276</v>
       </c>
       <c r="L8" t="n">
-        <v>0.125</v>
+        <v>0.8959276018099547</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.708333333333333</v>
+        <v>-0.4330891330891329</v>
       </c>
       <c r="N8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.1194444444444444</v>
-      </c>
-      <c r="R8" t="n">
-        <v>-0.0175925925925926</v>
-      </c>
-      <c r="S8" t="n">
-        <v>-0.04135802469135804</v>
+        <v>0.4132756132756135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>배꼽집</t>
+          <t>진주집</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -963,628 +825,487 @@
           <t>한식</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0.1471595184349139</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.1031746031746037</v>
+      </c>
       <c r="E9" t="n">
-        <v>1.385714285714286</v>
+        <v>-0.5317460317460321</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4857142857142858</v>
+        <v>0.1197691197691202</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04999999999999982</v>
+        <v>-0.09702797202797209</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.016666666666666</v>
+        <v>-0.1186058093952833</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1666666666666665</v>
+        <v>-0.776622110832637</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>1.243223010244287</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.25</v>
+        <v>-0.06914893617021178</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.25</v>
+        <v>0.2482905982905974</v>
       </c>
       <c r="M9" t="n">
-        <v>0.25</v>
+        <v>-0.1982905982905985</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.4500000000000002</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.03999999999999999</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.03999999999999999</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0.1233333333333334</v>
-      </c>
-      <c r="R9" t="n">
-        <v>-0.08222222222222227</v>
-      </c>
-      <c r="S9" t="n">
-        <v>-0.05425925925925931</v>
+        <v>-0.6025641025641026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>구이구이</t>
+          <t>폴앤폴리나</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>-0.6787878787878792</v>
+        <v>1.083333333333334</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2954545454545454</v>
+        <v>0.4166666666666661</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1958333333333333</v>
+        <v>-0.5833333333333339</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5</v>
+        <v>0.08333333333333393</v>
       </c>
       <c r="J10" t="n">
-        <v>0.875</v>
+        <v>0.1428571428571423</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0625</v>
+        <v>0.1904761904761907</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.25</v>
+        <v>-0.145833333333333</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1045454545454545</v>
+        <v>0.02083333333333393</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.2751803751803754</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-0.005396825396825467</v>
-      </c>
-      <c r="P10" t="n">
-        <v>-0.005396825396825467</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>-0.09532467532467544</v>
-      </c>
-      <c r="R10" t="n">
-        <v>-0.08779220779220788</v>
-      </c>
-      <c r="S10" t="n">
-        <v>-0.06075757575757585</v>
+        <v>0.2234848484848477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>영원식당</t>
+          <t>바스버거</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>양식</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.065789473684211</v>
+        <v>0.6159793814432986</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.583333333333333</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4783950617283952</v>
+        <v>-0.2781250000000002</v>
       </c>
       <c r="F11" t="n">
-        <v>1.431293612453033</v>
+        <v>0.2924107142857144</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.8623188405797104</v>
+        <v>-0.3661375661375663</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9177536231884056</v>
+        <v>-0.1765795206971674</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1687500000000002</v>
+        <v>0.07681846932321257</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.3937499999999998</v>
+        <v>-0.0283870967741926</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.9500000000000002</v>
+        <v>0.0981818181818177</v>
       </c>
       <c r="L11" t="n">
-        <v>0.661111111111111</v>
+        <v>-0.305050505050505</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5055555555555551</v>
+        <v>-0.1646464646464652</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.7499999999999991</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-0.02229532163742687</v>
-      </c>
-      <c r="P11" t="n">
-        <v>-0.02229532163742687</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>-0.2648635477582843</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.01786874593892149</v>
-      </c>
-      <c r="S11" t="n">
-        <v>-0.0893383149231101</v>
+        <v>0.5205627705627704</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>진주집</t>
+          <t>진가와</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>한식</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1471595184349139</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.1031746031746037</v>
-      </c>
+          <t>일식</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>-0.5317460317460321</v>
+        <v>-0.9182692307692308</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1197691197691202</v>
+        <v>0.5965909090909092</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.09702797202797209</v>
+        <v>-0.1363636363636367</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1186058093952833</v>
+        <v>0.2657342657342658</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.776622110832637</v>
+        <v>-0.3509615384615383</v>
       </c>
       <c r="J12" t="n">
-        <v>1.243223010244287</v>
+        <v>0.3125</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.06914893617021178</v>
+        <v>-0.5</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2482905982905974</v>
+        <v>0.1736111111111107</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1982905982905985</v>
+        <v>0.2501984126984134</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.6025641025641026</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-0.0615614931218769</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-0.0615614931218769</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-0.2418956962692854</v>
-      </c>
-      <c r="R12" t="n">
-        <v>-0.1529304641795238</v>
-      </c>
-      <c r="S12" t="n">
-        <v>-0.2198006412578773</v>
+        <v>-0.3738095238095243</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>수하동</t>
+          <t>팥이재</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>-0.6666666666666665</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.166666666666667</v>
+        <v>-0.375</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.458333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="J13" t="n">
-        <v>0.625</v>
+        <v>-2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.25</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>0.75</v>
+        <v>-0.4373737373737376</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.7045454545454546</v>
+        <v>0.3832070707070705</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.4204545454545454</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-0.03240740740740739</v>
-      </c>
-      <c r="P13" t="n">
-        <v>-0.03240740740740739</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-0.1617564534231201</v>
-      </c>
-      <c r="R13" t="n">
-        <v>-0.1002618780396558</v>
-      </c>
-      <c r="S13" t="n">
-        <v>-0.2419721910462651</v>
+        <v>0.1060185185185194</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>대오옛집</t>
+          <t>갓포아키</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>일식</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.4475524475524475</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2948717948717947</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.2222222222222223</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.01388888888888928</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.1749999999999998</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.2333333333333334</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>패트릭스와플</t>
+          <t>브루클린더버거조인트</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>카페</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+          <t>양식</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.2000000000000002</v>
+      </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0.1166666666666671</v>
       </c>
       <c r="F15" t="n">
-        <v>-1</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="G15" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.5</v>
-      </c>
       <c r="I15" t="n">
-        <v>0.25</v>
+        <v>1.783333333333334</v>
       </c>
       <c r="J15" t="n">
-        <v>0.25</v>
+        <v>-0.1375000000000002</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.833333333333333</v>
+        <v>-0.2236111111111114</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.416666666666667</v>
+        <v>0.1995726495726498</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3928571428571432</v>
+        <v>0.1457489878542511</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4025974025974026</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.05454545454545458</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.05454545454545458</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.1705627705627706</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.1097402597402598</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.1974747474747476</v>
+        <v>0.06578947368421062</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>폴앤폴리나</t>
+          <t>스시혜정</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>일식</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>1.083333333333334</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4166666666666661</v>
+        <v>-0.25</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5833333333333339</v>
+        <v>0.5</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08333333333333393</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1428571428571423</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1904761904761907</v>
+        <v>0.5</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.145833333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02083333333333393</v>
+        <v>0.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2234848484848477</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.1431818181818182</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.1431818181818182</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.1699494949494947</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.09246632996632993</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.1321829405162738</v>
+        <v>-0.1666666666666661</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>팥이재</t>
+          <t>경천애인</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1666666666666661</v>
+      </c>
       <c r="G17" t="n">
-        <v>0.08333333333333304</v>
+        <v>-0.04166666666666607</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.375</v>
+        <v>-0.4861111111111112</v>
       </c>
       <c r="I17" t="n">
-        <v>0.125</v>
+        <v>0.4444444444444442</v>
       </c>
       <c r="J17" t="n">
-        <v>-2</v>
+        <v>-0.2666666666666666</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>-0.06666666666666643</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.4373737373737376</v>
+        <v>0.5416666666666661</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3832070707070705</v>
+        <v>-0.02976190476190421</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1060185185185194</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.01064814814814818</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.01064814814814818</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.04243827160493859</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.01926440329218121</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.09537076006983435</v>
+        <v>-0.1785714285714288</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>커피기업</t>
+          <t>에덴식당</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>카페</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-1</v>
-      </c>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0.3999999999999995</v>
       </c>
       <c r="F18" t="n">
-        <v>0.166666666666667</v>
+        <v>-0.9333333333333331</v>
       </c>
       <c r="G18" t="n">
-        <v>0.333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.5</v>
+        <v>-0.2478632478632479</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0.2832167832167833</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0625</v>
+        <v>-0.1909090909090905</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.7784090909090908</v>
+        <v>0.1624999999999996</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7575757575757578</v>
+        <v>-0.07916666666666661</v>
       </c>
       <c r="M18" t="n">
-        <v>0.427083333333333</v>
+        <v>-0.4208333333333334</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.260416666666667</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.00694444444444442</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.00694444444444442</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>-0.08217592592592604</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.1426592312008978</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.04017314347175444</v>
+        <v>0.4722222222222223</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>뉴오리진</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3888888888888893</v>
+        <v>1.6</v>
       </c>
       <c r="D19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.666666666666667</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.3416666666666668</v>
-      </c>
       <c r="H19" t="n">
-        <v>-0.3250000000000002</v>
-      </c>
-      <c r="I19" t="n">
-        <v>-0.07222222222222197</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.04914529914529897</v>
-      </c>
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>-0.0475113122171944</v>
+        <v>0.25</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3796791443850269</v>
+        <v>-0.6666666666666665</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.3622159090909092</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1955492424242422</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.03177609427609429</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.03177609427609429</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.08636714365881026</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.06048863498822647</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.007290216755426391</v>
+        <v>0.4500000000000002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>나폴레옹</t>
+          <t>그레이에스프레소</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1592,62 +1313,31 @@
           <t>카페</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.5272727272727273</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.6727272727272724</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.02500000000000036</v>
-      </c>
-      <c r="I20" t="n">
-        <v>-0.3375000000000004</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.3724999999999996</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>-0.3437837837837838</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3752471984179309</v>
+        <v>-0.06666666666666643</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.303963414634147</v>
+        <v>-0.4333333333333336</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.08249999999999957</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.06708333333333336</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.06708333333333336</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.01722222222222238</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.02336211211211223</v>
-      </c>
-      <c r="S20" t="n">
-        <v>-0.03528540227219087</v>
+        <v>-0.2083333333333339</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>아이엠베이글</t>
+          <t>패트릭스와플</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1655,1006 +1345,775 @@
           <t>카페</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
         <v>-1</v>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.111111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4444444444444438</v>
+        <v>-0.833333333333333</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.1333333333333329</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4161616161616157</v>
+        <v>0.3928571428571432</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.1411616161616163</v>
-      </c>
-      <c r="O21" t="n">
-        <v>-0.1525000000000001</v>
-      </c>
-      <c r="P21" t="n">
-        <v>-0.1525000000000001</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>-0.1487205387205388</v>
-      </c>
-      <c r="R21" t="n">
-        <v>-0.05200897867564538</v>
-      </c>
-      <c r="S21" t="n">
-        <v>-0.0384549195660308</v>
+        <v>0.4025974025974026</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>카페진정성</t>
+          <t>브로드웨이</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>뷔페</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2688679245283021</v>
+        <v>-0.1713065979948492</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2613636363636367</v>
+        <v>0.3220464782964778</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1969696969696972</v>
+        <v>0.05534090909090938</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.7250000000000005</v>
+        <v>0.04213276836158197</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3083333333333336</v>
+        <v>0.1109227871939735</v>
       </c>
       <c r="H22" t="n">
-        <v>0.458333333333333</v>
+        <v>-0.002117876882027581</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2858974358974358</v>
+        <v>0.1090623213264728</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.022008547008547</v>
+        <v>-0.2168949771689501</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8670634920634925</v>
+        <v>0.2824978140483818</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.1153273809523814</v>
+        <v>-0.02914450354609865</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1210416666666667</v>
+        <v>0.1623184250764522</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.4600793650793649</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.037121268842967</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.037121268842967</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>-0.1286122757978103</v>
-      </c>
-      <c r="R22" t="n">
-        <v>-0.0847891362461593</v>
-      </c>
-      <c r="S22" t="n">
-        <v>-0.07969942879512229</v>
+        <v>-0.4223698320028593</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>오헨</t>
+          <t>야마야</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>카페</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+          <t>일식</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.5124999999999997</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3818181818181814</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.1318181818181818</v>
+      </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.1416666666666666</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>-0.1273809523809524</v>
       </c>
       <c r="J23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+        <v>0.2071428571428573</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.02142857142857135</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.1742424242424239</v>
+      </c>
       <c r="M23" t="n">
-        <v>0.1875</v>
+        <v>-0.07979797979797976</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="O23" t="n">
-        <v>-0.1125</v>
-      </c>
-      <c r="P23" t="n">
-        <v>-0.1125</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>-0.325</v>
-      </c>
-      <c r="R23" t="n">
-        <v>-0.2225</v>
-      </c>
-      <c r="S23" t="n">
-        <v>-0.2225</v>
+        <v>-0.4555555555555553</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>그레이에스프레소</t>
+          <t>테이스팅룸</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>카페</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>양식</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6071428571428577</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.6265432098765435</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.451255853554704</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5252873563218392</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.7957364341085271</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5002236135957072</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.4818681318681328</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1541251384274647</v>
+      </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-1.487160852713179</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.06666666666666643</v>
+        <v>1.957571138211383</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.4333333333333336</v>
+        <v>-0.3202775946678393</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.2083333333333339</v>
-      </c>
-      <c r="O24" t="n">
-        <v>-0.1770833333333335</v>
-      </c>
-      <c r="P24" t="n">
-        <v>-0.1770833333333335</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>-0.1875000000000003</v>
-      </c>
-      <c r="R24" t="n">
-        <v>-0.2083333333333335</v>
-      </c>
-      <c r="S24" t="n">
-        <v>-0.2319444444444447</v>
+        <v>0.08978978978978969</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>서궁</t>
+          <t>배꼽집</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>중식</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.06060606060606055</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.03846153846153832</v>
-      </c>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>-0.007211538461538325</v>
+        <v>1.385714285714286</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.65625</v>
+        <v>-0.4857142857142858</v>
       </c>
       <c r="G25" t="n">
-        <v>0.791666666666667</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.01449275362318847</v>
+        <v>-1.016666666666666</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03532608695652151</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2291666666666661</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.4666666666666659</v>
+        <v>-0.25</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1749999999999998</v>
+        <v>-0.25</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.008333333333333748</v>
+        <v>0.25</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.02142857142857135</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.002886002886002862</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.002886002886002862</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>-0.005218855218855209</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.02429854096520754</v>
-      </c>
-      <c r="S25" t="n">
-        <v>-0.0008183688739245078</v>
+        <v>-0.4500000000000002</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>라무진</t>
+          <t>아루히</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>중식</t>
+          <t>일식</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.5522388059701493</v>
+        <v>0.2269003931847973</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-0.2375204582651396</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2857142857142856</v>
+        <v>-0.03470176395708258</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1142857142857148</v>
+        <v>0.2958257437765637</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2000000000000002</v>
+        <v>-0.06179796599878618</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2166666666666668</v>
+        <v>-0.05704365079365026</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.6166666666666671</v>
+        <v>-0.02469433719433756</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8250000000000002</v>
+        <v>0.05669713831478518</v>
       </c>
       <c r="K26" t="n">
-        <v>0.375</v>
+        <v>-0.5716517115320707</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.625</v>
+        <v>0.5443922139830519</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0625</v>
+        <v>0.08348889196165121</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.2946428571428568</v>
-      </c>
-      <c r="O26" t="n">
-        <v>-0.0341151385927505</v>
-      </c>
-      <c r="P26" t="n">
-        <v>-0.0341151385927505</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>-0.1209577114427859</v>
-      </c>
-      <c r="R26" t="n">
-        <v>-0.1743884742951906</v>
-      </c>
-      <c r="S26" t="n">
-        <v>-0.09928655334438906</v>
+        <v>-0.07870838600927055</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>스시아라타</t>
+          <t>아이엠베이글</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>일식</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>-0.125</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-1.25</v>
-      </c>
+          <t>카페</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>1.714285714285714</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1190476190476186</v>
+        <v>-0.5</v>
       </c>
       <c r="I27" t="n">
-        <v>0.166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.25</v>
+        <v>-1.111111111111111</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.75</v>
+        <v>0.4444444444444438</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>-0.1333333333333329</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.4642857142857144</v>
+        <v>0.4161616161616157</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4642857142857144</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.1964285714285715</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.2202380952380952</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.09027777777777779</v>
+        <v>-0.1411616161616163</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>카레오</t>
+          <t>대오옛집</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>일식</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.6133333333333333</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I28" t="n">
-        <v>-0.2916666666666661</v>
-      </c>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>0.2249999999999996</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.177777777777778</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-0.6111111111111116</v>
-      </c>
-      <c r="M28" t="n">
-        <v>-0.06666666666666554</v>
-      </c>
+        <v>-0.25</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>0.3999999999999995</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.009444444444444439</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.009444444444444439</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.1396296296296294</v>
-      </c>
-      <c r="R28" t="n">
-        <v>-0.01987654320987657</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.07866255144032927</v>
+        <v>-0.08333333333333348</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>스시혜정</t>
+          <t>그리너리샐러드</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>일식</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
+          <t>양식</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.5714285714285712</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3214285714285712</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="M29" t="n">
         <v>0</v>
       </c>
-      <c r="F29" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="J29" t="n">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N29" t="n">
-        <v>-0.1666666666666661</v>
-      </c>
-      <c r="O29" t="n">
-        <v>-0.01666666666666661</v>
-      </c>
-      <c r="P29" t="n">
-        <v>-0.01666666666666661</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>-0.06666666666666643</v>
-      </c>
-      <c r="R29" t="n">
-        <v>-0.04444444444444429</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0.03148148148148167</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>갓포아키</t>
+          <t>라무진</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>일식</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+          <t>중식</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.5522388059701493</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
       <c r="E30" t="n">
-        <v>0.4475524475524475</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2948717948717947</v>
+        <v>0.1142857142857148</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2222222222222223</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01388888888888928</v>
+        <v>0.2166666666666668</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1749999999999998</v>
+        <v>-0.6166666666666671</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5499999999999998</v>
+        <v>0.8250000000000002</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="L30" t="n">
-        <v>-1</v>
+        <v>-0.625</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.2333333333333334</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.01757575757575758</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.01757575757575758</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>-0.06606060606060608</v>
-      </c>
-      <c r="R30" t="n">
-        <v>-0.1273737373737374</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.01806397306397305</v>
+        <v>-0.2946428571428568</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>아루히</t>
+          <t>카페진정성</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>일식</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2269003931847973</v>
+        <v>0.2688679245283021</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2375204582651396</v>
+        <v>0.2613636363636367</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.03470176395708258</v>
+        <v>0.1969696969696972</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2958257437765637</v>
+        <v>-0.7250000000000005</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.06179796599878618</v>
+        <v>0.3083333333333336</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.05704365079365026</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.02469433719433756</v>
+        <v>0.2858974358974358</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05669713831478518</v>
+        <v>-1.022008547008547</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.5716517115320707</v>
+        <v>0.8670634920634925</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5443922139830519</v>
+        <v>-0.1153273809523814</v>
       </c>
       <c r="M31" t="n">
-        <v>0.08348889196165121</v>
+        <v>0.1210416666666667</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.07870838600927055</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.01176550895587599</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.01176550895587599</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>-0.01839245603250619</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.09238521363577974</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.01705071357790103</v>
+        <v>-0.4600793650793649</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>진가와</t>
+          <t>커피기업</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>일식</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+          <t>카페</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1</v>
+      </c>
       <c r="E32" t="n">
-        <v>-0.9182692307692308</v>
+        <v>0.5</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5965909090909092</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1363636363636367</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2657342657342658</v>
+        <v>-1.5</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3509615384615383</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3125</v>
+        <v>-0.0625</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.5</v>
+        <v>-0.7784090909090908</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1736111111111107</v>
+        <v>0.7575757575757578</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2501984126984134</v>
+        <v>0.427083333333333</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.3738095238095243</v>
-      </c>
-      <c r="O32" t="n">
-        <v>-0.0680769230769231</v>
-      </c>
-      <c r="P32" t="n">
-        <v>-0.0680769230769231</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>-0.1699877899877902</v>
-      </c>
-      <c r="R32" t="n">
-        <v>-0.04269027269027276</v>
-      </c>
-      <c r="S32" t="n">
-        <v>-0.07874050332383667</v>
+        <v>-0.260416666666667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>하쯔호</t>
+          <t>수하동</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>일식</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="n">
-        <v>0.03571428571428559</v>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>0.2142857142857144</v>
+        <v>-0.6666666666666665</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.125</v>
+        <v>-0.458333333333333</v>
       </c>
       <c r="J33" t="n">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L33" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="M33" t="n">
-        <v>0.125</v>
+        <v>-0.7045454545454546</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.4375</v>
-      </c>
-      <c r="O33" t="n">
-        <v>-0.03125</v>
-      </c>
-      <c r="P33" t="n">
-        <v>-0.03125</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>-0.1666666666666667</v>
-      </c>
-      <c r="R33" t="n">
-        <v>-0.0486111111111111</v>
-      </c>
-      <c r="S33" t="n">
-        <v>-0.09837962962962961</v>
+        <v>-0.4204545454545454</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>야마야</t>
+          <t>더스테이크하우스</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>일식</t>
+          <t>양식</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.3389830508474576</v>
+        <v>0.5218858885017417</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3125</v>
+        <v>-0.2987012987012987</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5124999999999997</v>
+        <v>-0.9477272727272723</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3818181818181814</v>
+        <v>0.6349999999999998</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.1318181818181818</v>
+        <v>-0.1349999999999998</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1416666666666666</v>
+        <v>0.4363636363636365</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.1273809523809524</v>
+        <v>0.1553030303030294</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2071428571428573</v>
+        <v>-0.04166666666666607</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.02142857142857135</v>
+        <v>0.07500000000000018</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1742424242424239</v>
+        <v>-0.1078947368421055</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.07979797979797976</v>
+        <v>-0.2538699690402479</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.4555555555555553</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.01898932831136221</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.01898932831136221</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>-0.139192299644277</v>
-      </c>
-      <c r="R34" t="n">
-        <v>-0.07705412568877729</v>
-      </c>
-      <c r="S34" t="n">
-        <v>-0.1189368840106441</v>
+        <v>0.09926470588235325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>슈치쿠</t>
+          <t>그리츠</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>일식</t>
+          <t>뷔페</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5316666666666663</v>
+        <v>0.01351351351351315</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1428571428571432</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1071428571428568</v>
+        <v>-0.6577380952380953</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5499999999999998</v>
+        <v>0.3744047619047621</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5777777777777784</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.1777777777777789</v>
+        <v>-0.01052631578947416</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02222222222222214</v>
+        <v>-0.3271080928126766</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3042483660130717</v>
+        <v>0.4618768328445748</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.118778280542986</v>
+        <v>-0.09567099567099557</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.1366396761133606</v>
+        <v>0.06476190476190435</v>
       </c>
       <c r="M35" t="n">
-        <v>0.2554179566563466</v>
+        <v>-0.1698901098901091</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.8327205882352935</v>
-      </c>
-      <c r="O35" t="n">
-        <v>-0.03121527777777781</v>
-      </c>
-      <c r="P35" t="n">
-        <v>-0.03121527777777781</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>-0.2983837145969497</v>
-      </c>
-      <c r="R35" t="n">
-        <v>-0.1791260963074688</v>
-      </c>
-      <c r="S35" t="n">
-        <v>-0.1862071663398202</v>
+        <v>0.2081043956043951</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>그리너리샐러드</t>
+          <t>창고43</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>양식</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.2000000000000002</v>
+        <v>0.412751677852349</v>
       </c>
       <c r="D36" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+        <v>0.2291666666666661</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.7932692307692304</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.1364468864468864</v>
+      </c>
       <c r="G36" t="n">
-        <v>-0.5</v>
+        <v>0.9036744505494507</v>
       </c>
       <c r="H36" t="n">
-        <v>0.75</v>
+        <v>-0.2240927419354843</v>
       </c>
       <c r="I36" t="n">
-        <v>0.25</v>
+        <v>-0.006810035842293338</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.5714285714285712</v>
+        <v>-0.3555555555555556</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3214285714285712</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.75</v>
+        <v>-1.523809523809524</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.4565018315018312</v>
       </c>
       <c r="N36" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.07166666666666667</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.07166666666666667</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.2977777777777778</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.07351851851851852</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.2107716049382716</v>
+        <v>0.4789238539238543</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>아트리오</t>
+          <t>서궁</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>양식</t>
+          <t>중식</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.130952380952381</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+        <v>-0.06060606060606055</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.03846153846153832</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.007211538461538325</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.65625</v>
+      </c>
       <c r="G37" t="n">
-        <v>0.9166666666666665</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>0.08333333333333348</v>
+        <v>-0.01449275362318847</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1428571428571432</v>
+        <v>0.03532608695652151</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01890756302521002</v>
+        <v>0.2291666666666661</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5882352941176467</v>
+        <v>-0.4666666666666659</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.3214285714285712</v>
+        <v>0.1749999999999998</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.4464285714285716</v>
+        <v>-0.008333333333333748</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5595238095238089</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.2969576719576719</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.2969576719576719</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.3844797178130508</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.1283436213991768</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.2033056535371348</v>
+        <v>-0.02142857142857135</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>바스버거</t>
+          <t>쿠치나후</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2663,496 +2122,368 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.6159793814432986</v>
+        <v>0.3571428571428577</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2999999999999998</v>
+        <v>-0.4285714285714288</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.2781250000000002</v>
+        <v>-0.07142857142857117</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2924107142857144</v>
+        <v>0.03846153846153832</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.3661375661375663</v>
+        <v>0.183760683760684</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.1765795206971674</v>
+        <v>-0.02222222222222214</v>
       </c>
       <c r="I38" t="n">
-        <v>0.07681846932321257</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.0283870967741926</v>
+        <v>-0.2857142857142856</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0981818181818177</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.305050505050505</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.1646464646464652</v>
+        <v>-0.03571428571428559</v>
       </c>
       <c r="N38" t="n">
-        <v>0.5205627705627704</v>
-      </c>
-      <c r="O38" t="n">
-        <v>-0.001247749959090235</v>
-      </c>
-      <c r="P38" t="n">
-        <v>-0.001247749959090235</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.1726890902148633</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.03684323186041386</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.093825521345567</v>
+        <v>0.1690476190476184</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>브루클린더버거조인트</t>
+          <t>뉴오리진</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>양식</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C39" t="n">
+        <v>0.3888888888888893</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="D39" t="n">
-        <v>-0.2000000000000002</v>
-      </c>
       <c r="E39" t="n">
-        <v>0.1166666666666671</v>
+        <v>0.5</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08333333333333304</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.333333333333333</v>
+        <v>0.3416666666666668</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>-0.3250000000000002</v>
       </c>
       <c r="I39" t="n">
-        <v>1.783333333333334</v>
+        <v>-0.07222222222222197</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.1375000000000002</v>
+        <v>0.04914529914529897</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.2236111111111114</v>
+        <v>-0.0475113122171944</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1995726495726498</v>
+        <v>0.3796791443850269</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1457489878542511</v>
+        <v>-0.3622159090909092</v>
       </c>
       <c r="N39" t="n">
-        <v>0.06578947368421062</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.04970760233918131</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.090692007797271</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.07254523416804122</v>
+        <v>0.1955492424242422</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>쿠치나후</t>
+          <t>구이구이</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>양식</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0.3571428571428577</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.4285714285714288</v>
-      </c>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>-0.07142857142857117</v>
+        <v>-0.6787878787878792</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03846153846153832</v>
+        <v>0.2954545454545454</v>
       </c>
       <c r="G40" t="n">
-        <v>0.183760683760684</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.02222222222222214</v>
+        <v>0.1958333333333333</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.2000000000000002</v>
+        <v>-0.5</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.2857142857142856</v>
+        <v>0.875</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.2142857142857144</v>
+        <v>0.0625</v>
       </c>
       <c r="L40" t="n">
-        <v>0.416666666666667</v>
+        <v>-0.25</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.03571428571428559</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1690476190476184</v>
-      </c>
-      <c r="O40" t="n">
-        <v>-0.007738095238095211</v>
-      </c>
-      <c r="P40" t="n">
-        <v>-0.007738095238095211</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.05119047619047601</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.09761904761904756</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0.04444444444444434</v>
+        <v>-0.2751803751803754</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>테이스팅룸</t>
+          <t>나폴레옹</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>양식</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.6071428571428577</v>
+        <v>1.4</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.6265432098765435</v>
+        <v>-0.5272727272727273</v>
       </c>
       <c r="E41" t="n">
-        <v>0.451255853554704</v>
+        <v>-0.6727272727272724</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5252873563218392</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.7957364341085271</v>
+        <v>0.1875</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5002236135957072</v>
+        <v>0.02500000000000036</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.4818681318681328</v>
+        <v>-0.3375000000000004</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1541251384274647</v>
+        <v>0.3724999999999996</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.487160852713179</v>
+        <v>-0.3437837837837838</v>
       </c>
       <c r="L41" t="n">
-        <v>1.957571138211383</v>
+        <v>0.3752471984179309</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.3202775946678393</v>
+        <v>-0.303963414634147</v>
       </c>
       <c r="N41" t="n">
-        <v>0.08978978978978969</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.04781746031746029</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0.04781746031746029</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.06180823680823675</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.3140877484627484</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.04017385017130935</v>
+        <v>-0.08249999999999957</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>더스테이크하우스</t>
+          <t>영원식당</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>양식</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.5218858885017417</v>
+        <v>1.065789473684211</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2987012987012987</v>
+        <v>-1.583333333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.9477272727272723</v>
+        <v>-0.4783950617283952</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6349999999999998</v>
+        <v>1.431293612453033</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.1349999999999998</v>
+        <v>-0.8623188405797104</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4363636363636365</v>
+        <v>0.9177536231884056</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1553030303030294</v>
+        <v>0.1687500000000002</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.04166666666666607</v>
+        <v>-0.3937499999999998</v>
       </c>
       <c r="K42" t="n">
-        <v>0.07500000000000018</v>
+        <v>-0.9500000000000002</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.1078947368421055</v>
+        <v>0.661111111111111</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.2538699690402479</v>
+        <v>0.5055555555555551</v>
       </c>
       <c r="N42" t="n">
-        <v>0.09926470588235325</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.01149644308943087</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0.01149644308943087</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.04075253068707167</v>
-      </c>
-      <c r="R42" t="n">
-        <v>-0.0331257638556778</v>
-      </c>
-      <c r="S42" t="n">
-        <v>-0.02066426835793985</v>
+        <v>-0.7499999999999991</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>피그인더가든</t>
+          <t>카레오</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>양식</t>
+          <t>일식</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.07222222222222241</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="D43" t="n">
-        <v>0.545454545454545</v>
+        <v>-1.2</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1363636363636367</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6193181818181817</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3125</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2247150997150991</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.226987826987826</v>
+        <v>-0.2916666666666661</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.5282828282828285</v>
+        <v>0.2249999999999996</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3888888888888888</v>
+        <v>0.177777777777778</v>
       </c>
       <c r="L43" t="n">
-        <v>0.10952380952381</v>
+        <v>-0.6111111111111116</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.04383753501400633</v>
+        <v>-0.06666666666666554</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.1414565826330527</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.0191487706193589</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0.0191487706193589</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>-0.03438634713144497</v>
-      </c>
-      <c r="R43" t="n">
-        <v>-0.0119765190026627</v>
-      </c>
-      <c r="S43" t="n">
-        <v>-0.03222657375707482</v>
+        <v>0.3999999999999995</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>그리츠</t>
+          <t>파낙스</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>뷔페</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0.01351351351351315</v>
-      </c>
-      <c r="D44" t="n">
-        <v>-0.08333333333333304</v>
-      </c>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>-0.6577380952380953</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3744047619047621</v>
+        <v>0.5714285714285716</v>
       </c>
       <c r="G44" t="n">
+        <v>-0.2747252747252746</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.03365384615384581</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.4236111111111107</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.4444444444444446</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3333333333333339</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.708333333333333</v>
+      </c>
+      <c r="N44" t="n">
         <v>0.333333333333333</v>
-      </c>
-      <c r="H44" t="n">
-        <v>-0.01052631578947416</v>
-      </c>
-      <c r="I44" t="n">
-        <v>-0.3271080928126766</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.4618768328445748</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-0.09567099567099557</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.06476190476190435</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-0.1698901098901091</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.2081043956043951</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.009310649935649895</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.009310649935649895</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.07557523182523163</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.03286212036212029</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0.02754548962882295</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>브로드웨이</t>
+          <t>슈치쿠</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>뷔페</t>
+          <t>일식</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.1713065979948492</v>
+        <v>0.5316666666666663</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3220464782964778</v>
+        <v>-0.1428571428571432</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05534090909090938</v>
+        <v>-0.1071428571428568</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04213276836158197</v>
+        <v>-0.5499999999999998</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1109227871939735</v>
+        <v>0.5777777777777784</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.002117876882027581</v>
+        <v>-0.1777777777777789</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1090623213264728</v>
+        <v>0.02222222222222214</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.2168949771689501</v>
+        <v>0.3042483660130717</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2824978140483818</v>
+        <v>-0.118778280542986</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.02914450354609865</v>
+        <v>-0.1366396761133606</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1623184250764522</v>
+        <v>0.2554179566563466</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.4223698320028593</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.02020730964995539</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.02020730964995539</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>-0.1273184042343162</v>
-      </c>
-      <c r="R45" t="n">
-        <v>-0.06268328256781852</v>
-      </c>
-      <c r="S45" t="n">
-        <v>-0.06827307907143849</v>
+        <v>-0.8327205882352935</v>
       </c>
     </row>
   </sheetData>
